--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM\MUM_Course\ASD_26102020\Assignment\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8543b8d03b7b4a0/Projects/asd/BankingSystem/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94DEE4-C078-4DA9-9887-580AC3BFE104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7542A10-7BA6-9440-AFDB-17A93B477528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="Data Test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>WBS - Team 6</t>
   </si>
@@ -53,13 +52,24 @@
     <t>PIC</t>
   </si>
   <si>
-    <t>Source code structure, DB layer…</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Project framework: common framework for 2 application, then put in Github</t>
   </si>
   <si>
     <t>Duc Phuoc Doan</t>
   </si>
   <si>
-    <t>Class Diagram</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Diagram </t>
+  </si>
+  <si>
+    <t>- The first draft for team discussion
+- Update from team disucssion 
+- Maintain during changes in implementation</t>
   </si>
   <si>
     <t>Duy Thai Nguyen</t>
@@ -68,161 +78,146 @@
     <t>Personal Account -&gt; Deposit/Withdraw/Calculate Interest</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Generate Report of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Credit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Card</t>
-    </r>
-  </si>
-  <si>
-    <t>Create project structure to start implementation</t>
-  </si>
-  <si>
-    <t>Create Credit Card -&gt; Deposit/Charge Account</t>
-  </si>
-  <si>
-    <t>Initiate for discussion and update the final</t>
-  </si>
-  <si>
-    <t>Credit Interest: interest and Payment</t>
-  </si>
-  <si>
-    <t>Company Account -&gt; Calculate Interest</t>
-  </si>
-  <si>
-    <t>Integration and Testing</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Integrate the whole system and do testing</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI. Strategy Pattern and Observer pattern (mail inform)
+    <t>Full flow from DB to UI. Strategy Pattern and Observer pattern these functions: 
+- Create Personal Account
+- Deposit and Withdraw
+- Calculate interests
+For each the fuction, we need to do: 
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>Full flow from DB to  UI. Strategy Pattern and Observer pattern (mail inform)
+    <t>Company Account -&gt; Calculate Interest</t>
+  </si>
+  <si>
+    <t>Full flow from DB to UI. Strategy Pattern and Observer pattern these functions: 
+- Create Company Account
+- Deposit and Withdraw
+- Calculate interests
+For each the fuction, we need to do: 
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>including reports in part 1 and part 2, and Observer pattern (mail inform)
+    <t>Generate Billing report of Credit Card application</t>
+  </si>
+  <si>
+    <t>Report for the part 2, Billing report
+- Review Class diagram
+- Implementation
+- Apply Strategy pattern</t>
+  </si>
+  <si>
+    <t>Generate Report of Banking application</t>
+  </si>
+  <si>
+    <t>Report for the part 1, Bank Statement
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>Full flow from DB to UI, visitor pattern,  and Observer pattern (mail inform)
+    <t>Yohannes Teweldeberhan.</t>
+  </si>
+  <si>
+    <t>Report for the part 2, Billing report
+- Review Class diagram
+- Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Create Credit Card -&gt; Deposit/Charge Account</t>
+  </si>
+  <si>
+    <t>Full flow from DB to UI,  and Observer pattern:
+- Create CreditCard
+- Deposit and Charge
+For each feature, we do below tasks: 
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>Full flow from DB to UI,  and Observer pattern (mail inform)
+    <t>Biniam Tsehaye Arefaine</t>
+  </si>
+  <si>
+    <t>Credit Interest: interest and Payment</t>
+  </si>
+  <si>
+    <t>Full flow from DB to UI, Strategy and Observer pattern (mail inform):
+- Interest
+- Min Payment
+For each, do below tasks: 
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
   </si>
   <si>
+    <t>Tesfai Habtai Samuel
+Yohannes Teweldeberhan.</t>
+  </si>
+  <si>
+    <t>Integration and Testing</t>
+  </si>
+  <si>
+    <t>Integrate the whole system and do testing</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>In reviewing the all deliverables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>Checking/Saving</t>
+  </si>
+  <si>
+    <t>AccountNo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Biniam Tsehaye Arefaine</t>
-  </si>
-  <si>
-    <t>Tesfai Habtai Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yohannes Teweldeberhan.
-</t>
-  </si>
-  <si>
-    <t>ndt.rachkien@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. </t>
-  </si>
-  <si>
-    <t>Checking/Saving</t>
-  </si>
-  <si>
-    <t>AccountNo</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve">Checking </t>
   </si>
   <si>
+    <t>C001-0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">N 1st </t>
   </si>
   <si>
@@ -232,85 +227,73 @@
     <t>IA</t>
   </si>
   <si>
+    <t>C001@gmail.com</t>
+  </si>
+  <si>
+    <t>C001-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N 2nd </t>
+  </si>
+  <si>
+    <t>C002@gmail.com</t>
+  </si>
+  <si>
     <t>Saving</t>
   </si>
   <si>
-    <t xml:space="preserve">N 2nd </t>
+    <t>C001-0003</t>
   </si>
   <si>
     <t>N 3rd</t>
   </si>
   <si>
+    <t>C003@gmail.com</t>
+  </si>
+  <si>
+    <t>C001-0004</t>
+  </si>
+  <si>
     <t xml:space="preserve">N 4th </t>
   </si>
   <si>
+    <t>C004@gmail.com</t>
+  </si>
+  <si>
     <t>Personal Account</t>
   </si>
   <si>
-    <t>C001-0001</t>
-  </si>
-  <si>
-    <t>C001-0002</t>
-  </si>
-  <si>
-    <t>C001-0003</t>
-  </si>
-  <si>
-    <t>C001-0004</t>
-  </si>
-  <si>
     <t>P001-1001</t>
   </si>
   <si>
+    <t>1960-01-01</t>
+  </si>
+  <si>
+    <t>P001@gmail.com</t>
+  </si>
+  <si>
     <t>P001-1002</t>
   </si>
   <si>
+    <t>P002@gmail.com</t>
+  </si>
+  <si>
     <t>P001-1003</t>
   </si>
   <si>
+    <t>P003@gmail.com</t>
+  </si>
+  <si>
     <t>P001-1004</t>
   </si>
   <si>
-    <t>C001@gmail.com</t>
-  </si>
-  <si>
-    <t>C002@gmail.com</t>
-  </si>
-  <si>
-    <t>C003@gmail.com</t>
-  </si>
-  <si>
-    <t>C004@gmail.com</t>
-  </si>
-  <si>
-    <t>P001@gmail.com</t>
-  </si>
-  <si>
-    <t>P002@gmail.com</t>
-  </si>
-  <si>
-    <t>P003@gmail.com</t>
-  </si>
-  <si>
     <t>P004@gmail.com</t>
   </si>
   <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Withdraw</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>1960-01-01</t>
+    <t>- Create project structure, framework for starting the implementation
+- Update framework during implementation
+- Apply Singleton pattern for database connector
+- Apply Composite pattern for Customer has multiple credit card</t>
   </si>
 </sst>
 </file>
@@ -454,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -474,9 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,30 +466,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,36 +823,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B79BA6-5186-4886-A71A-73B352D628AD}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="47" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="6"/>
+    <col min="2" max="2" width="38.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -864,142 +862,185 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{428C9B76-A51A-455C-B022-FF751BE0F1FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1007,484 +1048,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC847E41-965D-4E3E-BAC5-541CD5266AB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7">
         <v>52557</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="J2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="7">
         <v>10000</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="14">
         <f>(L2-M2)*$O$3</f>
         <v>3465</v>
       </c>
       <c r="O2">
         <v>0.7</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="12">
         <f>L2-M2+N2</f>
         <v>13365</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="14">
         <f>P2*$O$3</f>
         <v>4677.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="8">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="7">
         <v>52557</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>5</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="J3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="7">
         <v>400</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>500</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="14">
         <f>(L3-0)*$O$3</f>
         <v>140</v>
       </c>
       <c r="O3">
         <v>0.35</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="12">
         <f t="shared" ref="P3:P10" si="0">L3-M3+N3</f>
         <v>40</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="14">
         <f>P3*$O$3</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="8">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7">
         <v>52557</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>5</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="J4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="7">
         <v>20000</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>800</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="14">
         <f>(L4-M4)*$O$2</f>
         <v>13440</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="12">
         <f t="shared" si="0"/>
         <v>32640</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="14">
         <f>P4*$O$2</f>
         <v>22848</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7">
         <v>52557</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="J5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="7">
         <v>500</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>100</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="14">
         <f>(L5-M5)*$O$2</f>
         <v>280</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="14">
         <f>P5*$O$2</f>
         <v>475.99999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="21"/>
-      <c r="P6" s="19">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="14"/>
+      <c r="P6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>52557</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="I7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="7">
         <v>1000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>10</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="14">
         <f>(L7-M7)*$O$8</f>
         <v>247.5</v>
       </c>
       <c r="O7">
         <v>0.6</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="12">
         <f t="shared" si="0"/>
         <v>1237.5</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="14">
         <f>P7*$O$8</f>
         <v>309.375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>52557</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="7">
         <v>40</v>
       </c>
-      <c r="H8" s="8">
-        <v>52557</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="8">
-        <v>40</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>50</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="14">
         <f>(L8-0)*$O$8</f>
         <v>10</v>
       </c>
       <c r="O8">
         <v>0.25</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="12">
         <f>L8-0+N8</f>
         <v>50</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="14">
         <f>P8*$O$8</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="8">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>52557</v>
       </c>
-      <c r="I9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="I9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="7">
         <v>200</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>80</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="14">
         <f>(L9-M9)*$O$7</f>
         <v>72</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="12">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="14">
         <f>P9*$O$7</f>
         <v>115.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="7">
         <v>52557</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="I10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="7">
         <v>50</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>10</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="14">
         <f>(L10-M10)*$O$7</f>
         <v>24</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="14">
         <f>P10*$O$7</f>
         <v>38.4</v>
       </c>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8543b8d03b7b4a0/Projects/asd/BankingSystem/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7542A10-7BA6-9440-AFDB-17A93B477528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{16404DF6-EFAA-7C40-99E5-252F5E0B841E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8543b8d03b7b4a0/Projects/asd/BankingSystem/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM\MUM_Course\WAP_09282020\Assignment\bankproj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{16404DF6-EFAA-7C40-99E5-252F5E0B841E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61818ED9-CB94-4E54-B2D0-123B86C9965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
     <sheet name="Data Test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>WBS - Team 6</t>
   </si>
@@ -52,16 +52,145 @@
     <t>PIC</t>
   </si>
   <si>
+    <t>Duc Phuoc Doan</t>
+  </si>
+  <si>
+    <t>Duy Thai Nguyen</t>
+  </si>
+  <si>
+    <t>Personal Account -&gt; Deposit/Withdraw/Calculate Interest</t>
+  </si>
+  <si>
+    <t>Create Credit Card -&gt; Deposit/Charge Account</t>
+  </si>
+  <si>
+    <t>Credit Interest: interest and Payment</t>
+  </si>
+  <si>
+    <t>Company Account -&gt; Calculate Interest</t>
+  </si>
+  <si>
+    <t>Integration and Testing</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Integrate the whole system and do testing</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Biniam Tsehaye Arefaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>Checking/Saving</t>
+  </si>
+  <si>
+    <t>AccountNo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N 1st </t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N 2nd </t>
+  </si>
+  <si>
+    <t>N 3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N 4th </t>
+  </si>
+  <si>
+    <t>Personal Account</t>
+  </si>
+  <si>
+    <t>C001-0001</t>
+  </si>
+  <si>
+    <t>C001-0002</t>
+  </si>
+  <si>
+    <t>C001-0003</t>
+  </si>
+  <si>
+    <t>C001-0004</t>
+  </si>
+  <si>
+    <t>P001-1001</t>
+  </si>
+  <si>
+    <t>P001-1002</t>
+  </si>
+  <si>
+    <t>P001-1003</t>
+  </si>
+  <si>
+    <t>P001-1004</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1960-01-01</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In reviewing the all deliverables</t>
+  </si>
+  <si>
+    <t>Yohannes Teweldeberhan.</t>
+  </si>
+  <si>
     <t>Project framework: common framework for 2 application, then put in Github</t>
-  </si>
-  <si>
-    <t>Duc Phuoc Doan</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t xml:space="preserve">Class Diagram </t>
@@ -72,13 +201,54 @@
 - Maintain during changes in implementation</t>
   </si>
   <si>
-    <t>Duy Thai Nguyen</t>
-  </si>
-  <si>
-    <t>Personal Account -&gt; Deposit/Withdraw/Calculate Interest</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI. Strategy Pattern and Observer pattern these functions: 
+    <t>Report for the part 1, Bank Statement
+- Review Class diagram
+- Implementation
+- Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Report for the part 2, Billing report
+- Review Class diagram
+- Implementation
+- Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Generate Report of Banking application</t>
+  </si>
+  <si>
+    <t>Full flow from DB to UI,  and Observer pattern:
+- Create CreditCard
+- Deposit and Charge
+For each feature, we do below tasks: 
+- Review Class diagram
+- Implementation
+- Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Generate Billing report of Credit Card application</t>
+  </si>
+  <si>
+    <t>Full flow from DB to UI, Strategy and Observer pattern (mail inform):
+- Interest
+- Min Payment
+For each, do below tasks: 
+- Review Class diagram
+- Implementation
+- Sequence Diagram</t>
+  </si>
+  <si>
+    <t>ndt.rachkien@gmail.com</t>
+  </si>
+  <si>
+    <t>- Create project structure, framework for starting the implementation
+- Update framework during implementation
+- Apply Singleton pattern for AcountDAO</t>
+  </si>
+  <si>
+    <t>Tesfai Habtai Samuel</t>
+  </si>
+  <si>
+    <t>To implement full flow from DB to UI, apply Strategy Pattern and Observer pattern these functions: 
 - Create Personal Account
 - Deposit and Withdraw
 - Calculate interests
@@ -88,10 +258,7 @@
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>Company Account -&gt; Calculate Interest</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI. Strategy Pattern and Observer pattern these functions: 
+    <t>To implement full flow from DB to UI, apply Strategy Pattern and Observer pattern these functions: 
 - Create Company Account
 - Deposit and Withdraw
 - Calculate interests
@@ -99,201 +266,6 @@
 - Review Class diagram
 - Implementation
 - Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Generate Billing report of Credit Card application</t>
-  </si>
-  <si>
-    <t>Report for the part 2, Billing report
-- Review Class diagram
-- Implementation
-- Apply Strategy pattern</t>
-  </si>
-  <si>
-    <t>Generate Report of Banking application</t>
-  </si>
-  <si>
-    <t>Report for the part 1, Bank Statement
-- Review Class diagram
-- Implementation
-- Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Yohannes Teweldeberhan.</t>
-  </si>
-  <si>
-    <t>Report for the part 2, Billing report
-- Review Class diagram
-- Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Create Credit Card -&gt; Deposit/Charge Account</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI,  and Observer pattern:
-- Create CreditCard
-- Deposit and Charge
-For each feature, we do below tasks: 
-- Review Class diagram
-- Implementation
-- Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Biniam Tsehaye Arefaine</t>
-  </si>
-  <si>
-    <t>Credit Interest: interest and Payment</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI, Strategy and Observer pattern (mail inform):
-- Interest
-- Min Payment
-For each, do below tasks: 
-- Review Class diagram
-- Implementation
-- Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Tesfai Habtai Samuel
-Yohannes Teweldeberhan.</t>
-  </si>
-  <si>
-    <t>Integration and Testing</t>
-  </si>
-  <si>
-    <t>Integrate the whole system and do testing</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>In reviewing the all deliverables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. </t>
-  </si>
-  <si>
-    <t>Checking/Saving</t>
-  </si>
-  <si>
-    <t>AccountNo</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Withdraw</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking </t>
-  </si>
-  <si>
-    <t>C001-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N 1st </t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>C001@gmail.com</t>
-  </si>
-  <si>
-    <t>C001-0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N 2nd </t>
-  </si>
-  <si>
-    <t>C002@gmail.com</t>
-  </si>
-  <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>C001-0003</t>
-  </si>
-  <si>
-    <t>N 3rd</t>
-  </si>
-  <si>
-    <t>C003@gmail.com</t>
-  </si>
-  <si>
-    <t>C001-0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N 4th </t>
-  </si>
-  <si>
-    <t>C004@gmail.com</t>
-  </si>
-  <si>
-    <t>Personal Account</t>
-  </si>
-  <si>
-    <t>P001-1001</t>
-  </si>
-  <si>
-    <t>1960-01-01</t>
-  </si>
-  <si>
-    <t>P001@gmail.com</t>
-  </si>
-  <si>
-    <t>P001-1002</t>
-  </si>
-  <si>
-    <t>P002@gmail.com</t>
-  </si>
-  <si>
-    <t>P001-1003</t>
-  </si>
-  <si>
-    <t>P003@gmail.com</t>
-  </si>
-  <si>
-    <t>P001-1004</t>
-  </si>
-  <si>
-    <t>P004@gmail.com</t>
-  </si>
-  <si>
-    <t>- Create project structure, framework for starting the implementation
-- Update framework during implementation
-- Apply Singleton pattern for database connector
-- Apply Composite pattern for Customer has multiple credit card</t>
   </si>
 </sst>
 </file>
@@ -437,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,12 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,32 +792,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B79BA6-5186-4886-A71A-73B352D628AD}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="6"/>
-    <col min="2" max="2" width="38.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="38.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -862,177 +831,160 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>16</v>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1049,88 +1001,88 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>45</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7">
         <v>52557</v>
@@ -1139,7 +1091,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7">
         <v>10000</v>
@@ -1163,25 +1115,25 @@
         <v>4677.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7">
         <v>52557</v>
@@ -1190,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L3" s="7">
         <v>400</v>
@@ -1214,25 +1166,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7">
         <v>52557</v>
@@ -1241,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7">
         <v>20000</v>
@@ -1262,25 +1214,25 @@
         <v>22848</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>52557</v>
@@ -1289,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7">
         <v>500</v>
@@ -1310,19 +1262,19 @@
         <v>475.99999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
@@ -1332,34 +1284,34 @@
       </c>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>52557</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L7" s="7">
         <v>1000</v>
@@ -1383,34 +1335,34 @@
         <v>309.375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>52557</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7">
         <v>40</v>
@@ -1434,34 +1386,34 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>52557</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7">
         <v>200</v>
@@ -1482,34 +1434,34 @@
         <v>115.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>52557</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7">
         <v>50</v>
@@ -1537,17 +1489,15 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3AED293F-EDD4-45C0-B35A-3CD236E0504D}"/>
-    <hyperlink ref="J3:J5" r:id="rId2" display="p001@gmail.com" xr:uid="{119C8857-D6B3-4877-85A0-4D0A5B429797}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{65A9622B-F209-4E02-AFCD-5DC53F52F4D1}"/>
-    <hyperlink ref="J4" r:id="rId4" xr:uid="{65738428-C28E-435C-9BDF-A05DC266A3CF}"/>
-    <hyperlink ref="J5" r:id="rId5" xr:uid="{46E58D43-0225-40D4-AEC6-B44748BF00F0}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{B29A8868-E247-4859-9019-CC3029C6F46E}"/>
-    <hyperlink ref="J8:J10" r:id="rId7" display="p001@gmail.com" xr:uid="{F4D24BDA-0C8C-4D92-9772-334B4F9B3DDD}"/>
-    <hyperlink ref="J8" r:id="rId8" xr:uid="{F9989DB6-81D6-4AF8-B460-4A928A3961B3}"/>
-    <hyperlink ref="J9" r:id="rId9" xr:uid="{0C363BFA-5E2D-4C60-8AEA-AE359776D9F9}"/>
-    <hyperlink ref="J10" r:id="rId10" xr:uid="{99F54E54-911A-43EE-B91D-4A8AC0BE4BBE}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{F2566113-747E-4DF1-ACC4-593C0C9335E0}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{CD348B69-4DFF-4759-A444-150E87CDD475}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{121C2EC9-A690-40D9-8E4F-515A8B27DB3E}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{AC7738E5-79F4-4093-82FE-919A1AE4ED8D}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{89DF4181-B685-4A5B-8469-506F2D6A2FA2}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{FA5F37EA-46CB-43BC-B796-1C1F2FCF4558}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{D7B5FAAF-63F4-486D-BD76-58B30B703F7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM\MUM_Course\WAP_09282020\Assignment\bankproj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61818ED9-CB94-4E54-B2D0-123B86C9965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A71793-A66B-4590-A0D0-A44747A3432E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>WBS - Team 6</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>In reviewing the all deliverables</t>
   </si>
   <si>
     <t>Yohannes Teweldeberhan.</t>
@@ -409,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,6 +453,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,9 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -794,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B79BA6-5186-4886-A71A-73B352D628AD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +807,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -839,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -856,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -876,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -893,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -907,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -924,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>48</v>
@@ -944,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>15</v>
@@ -961,10 +959,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>48</v>
@@ -984,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +999,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="7">
         <v>10000</v>
@@ -1142,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="7">
         <v>400</v>
@@ -1193,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="7">
         <v>20000</v>
@@ -1241,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7">
         <v>500</v>
@@ -1263,18 +1261,18 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
@@ -1311,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7">
         <v>1000</v>
@@ -1362,7 +1360,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7">
         <v>40</v>
@@ -1388,7 +1386,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1413,7 +1411,7 @@
         <v>46</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7">
         <v>200</v>
@@ -1461,7 +1459,7 @@
         <v>46</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7">
         <v>50</v>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM\MUM_Course\WAP_09282020\Assignment\bankproj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A71793-A66B-4590-A0D0-A44747A3432E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7D559-086C-45F6-A0AE-7AE8B7EF99C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Team Structure" sheetId="3" r:id="rId1"/>
+    <sheet name="WBS" sheetId="1" r:id="rId2"/>
+    <sheet name="Class Diagram" sheetId="4" r:id="rId3"/>
+    <sheet name="Data Test" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>WBS - Team 6</t>
   </si>
@@ -264,12 +266,28 @@
 - Implementation
 - Sequence Diagram</t>
   </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Yohannes Teweldeberhan</t>
+  </si>
+  <si>
+    <t>All memvers join to design, coding, integration and testing.
+Details is in WBS sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,8 +332,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -401,12 +433,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,7 +544,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,6 +584,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>49741</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30691</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>134634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5F9816-6D70-4456-B1B6-8DC1DE73EF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49741" y="10583"/>
+          <a:ext cx="7960783" cy="6029551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,11 +942,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF44EA6-1619-4148-9413-5D5096B50A3D}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C3:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B79BA6-5186-4886-A71A-73B352D628AD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,13 +1049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -994,7 +1236,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60271BD3-4E6B-441A-B8EB-A2A099C63389}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC847E41-965D-4E3E-BAC5-541CD5266AB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -1261,18 +1518,18 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
@@ -1386,7 +1643,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="7" t="s">

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUM\MUM_Course\WAP_09282020\Assignment\bankproj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB7D559-086C-45F6-A0AE-7AE8B7EF99C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE927931-001F-498D-8C87-E1C1E9F1EC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{26B21BE0-F582-4599-956B-3993E3646063}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Structure" sheetId="3" r:id="rId1"/>
     <sheet name="WBS" sheetId="1" r:id="rId2"/>
     <sheet name="Class Diagram" sheetId="4" r:id="rId3"/>
-    <sheet name="Data Test" sheetId="2" r:id="rId4"/>
+    <sheet name="Thai" sheetId="5" r:id="rId4"/>
+    <sheet name="Data Test" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>WBS - Team 6</t>
   </si>
@@ -61,12 +62,6 @@
   </si>
   <si>
     <t>Personal Account -&gt; Deposit/Withdraw/Calculate Interest</t>
-  </si>
-  <si>
-    <t>Create Credit Card -&gt; Deposit/Charge Account</t>
-  </si>
-  <si>
-    <t>Credit Interest: interest and Payment</t>
   </si>
   <si>
     <t>Company Account -&gt; Calculate Interest</t>
@@ -225,15 +220,6 @@
   </si>
   <si>
     <t>Generate Billing report of Credit Card application</t>
-  </si>
-  <si>
-    <t>Full flow from DB to UI, Strategy and Observer pattern (mail inform):
-- Interest
-- Min Payment
-For each, do below tasks: 
-- Review Class diagram
-- Implementation
-- Sequence Diagram</t>
   </si>
   <si>
     <t>ndt.rachkien@gmail.com</t>
@@ -267,9 +253,6 @@
 - Sequence Diagram</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -281,6 +264,15 @@
   <si>
     <t>All memvers join to design, coding, integration and testing.
 Details is in WBS sheet</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Charge Account</t>
+  </si>
+  <si>
+    <t>Create Credit Card -&gt; Deposit Account</t>
   </si>
 </sst>
 </file>
@@ -946,7 +938,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
@@ -967,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="31"/>
     </row>
@@ -1007,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="31"/>
     </row>
@@ -1016,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="32"/>
     </row>
@@ -1034,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B79BA6-5186-4886-A71A-73B352D628AD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1079,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1096,16 +1088,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1116,13 +1108,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -1130,16 +1122,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1147,16 +1139,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1164,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1181,33 +1173,33 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,16 +1207,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60271BD3-4E6B-441A-B8EB-A2A099C63389}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1252,11 +1244,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F513FF20-1B34-42D4-9759-F73C71A29467}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC847E41-965D-4E3E-BAC5-541CD5266AB6}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,70 +1280,70 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="7">
         <v>52557</v>
@@ -1346,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L2" s="7">
         <v>10000</v>
@@ -1373,22 +1379,22 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7">
         <v>52557</v>
@@ -1397,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L3" s="7">
         <v>400</v>
@@ -1424,22 +1430,22 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
         <v>52557</v>
@@ -1448,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L4" s="7">
         <v>20000</v>
@@ -1472,22 +1478,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>52557</v>
@@ -1496,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7">
         <v>500</v>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -1542,31 +1548,31 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>52557</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7">
         <v>1000</v>
@@ -1593,31 +1599,31 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>52557</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7">
         <v>40</v>
@@ -1644,31 +1650,31 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
         <v>52557</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7">
         <v>200</v>
@@ -1692,31 +1698,31 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>52557</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7">
         <v>50</v>
